--- a/medicine/Enfance/L'Âge_d'or_(revue)/L'Âge_d'or_(revue).xlsx
+++ b/medicine/Enfance/L'Âge_d'or_(revue)/L'Âge_d'or_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(revue)</t>
+          <t>L'Âge_d'or_(revue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Âge d'or (La Edad de Oro) est une revue mensuelle cubaine pour la jeunesse fondée en 1889 par l'écrivain  José Martí. Elle n'a connu que quatre numéros qui ont gardé une certaine fraîcheur, beauté et vigueur plus d'un siècle après leur création, parlant aux enfants dans une langue universelle.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%82ge_d%27or_(revue)</t>
+          <t>L'Âge_d'or_(revue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Premier numéro (juillet 1889)
-A los niños que lean La Edad de Oro
+          <t>Premier numéro (juillet 1889)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A los niños que lean La Edad de Oro
 Tres Héroes
 Dos Milagros
 Meñique
@@ -526,23 +543,125 @@
 La Ilíada de Homero
 Un juguete nuevo y otros viejos
 Bebé y el señor Don Pomposo
-La última página
-Deuxième numéro (août 1889)
-La Historia del Hombre contada por sus casas
+La última página</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Âge_d'or_(revue)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_d%27or_(revue)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Table des matières des quatre numéros</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Deuxième numéro (août 1889)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Historia del Hombre contada por sus casas
 Los dos príncipes
 Nené traviesa
 La perla de la mora
 Las ruinas indias
 Músicos, poetas y pintores
-La última página
-Troisième numéro (septembre 1889)
-La Exposición de París
+La última página</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Âge_d'or_(revue)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_d%27or_(revue)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Table des matières des quatre numéros</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Troisième numéro (septembre 1889)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Exposición de París
 El camarón encantado
 El Padre las Casas
 Los Zapaticos de Rosa
-La última página
-Quatrième numéro (octobre 1889)
-Mi nombre es Khan
+La última página</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Âge_d'or_(revue)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27%C3%82ge_d%27or_(revue)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Table des matières des quatre numéros</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Quatrième numéro (octobre 1889)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mi nombre es Khan
 La muñeca negra
 Cuentos de elefantes
 Los dos ruiseñores
